--- a/medicine/Mort/Congrès_mondial_contre_la_peine_de_mort/Congrès_mondial_contre_la_peine_de_mort.xlsx
+++ b/medicine/Mort/Congrès_mondial_contre_la_peine_de_mort/Congrès_mondial_contre_la_peine_de_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Congrès mondial contre la peine de mort, organisé par l'association française Ensemble contre la peine de mort (ECPM) ([1]), a pour but de réunir les abolitionnistes du monde entier, de dresser un bilan sur l'état de la peine capitale dans le monde et de débattre sur les meilleurs moyens pour l'abolir.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Congrès mondial contre la peine de mort, organisé par l'association française Ensemble contre la peine de mort (ECPM) (), a pour but de réunir les abolitionnistes du monde entier, de dresser un bilan sur l'état de la peine capitale dans le monde et de débattre sur les meilleurs moyens pour l'abolir.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Le premier Congrès mondial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le premier Congrès mondial contre la peine de mort s'est déroulé du 21 au 23 juin 2001 à Strasbourg[1], à l'initiative de l'organisation ECPM.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le premier Congrès mondial contre la peine de mort s'est déroulé du 21 au 23 juin 2001 à Strasbourg, à l'initiative de l'organisation ECPM.
 Ce premier Congrès a permis donc d'une part de faire le bilan sur le peine de mort dans le monde :
 En 2001, 109 pays sur 195 ont aboli, en droit ou en fait (en appliquant des moratoires) la peine de mort.
 En 1999, selon Amnesty International, 64 pays ont prononcé au total 3 857 condamnations à mort et 1 813 prisonniers ont été exécutés dans 31 pays. Mais l'organisation estime que ces chiffres sont inférieurs à la réalité.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Le 2e Congrès mondial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2e Congrès mondial contre la peine de mort, organisé par ECPM en partenariat avec Penal Reform International (PRI), s'est déroulé du 6 au 9 octobre 2004 à Montréal. Le Congrès a rassemblé diplomates, ONG, journalistes et citoyens de 64 pays. Ce Congrès, axé notamment sur les États-Unis à l'aube de l'élection présidentielle américaine, a porté sur le développement d'approches régionales et sur les problématiques de politique pénale.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Le 3e Congrès mondial</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organisé par ECPM, le 3e Congrès mondial s'est tenu à Paris du 1er au 3 février 2007. Placé sous les hauts patronages de Jacques Chirac et d'Angela Merkel, le 3e Congrès mondial a accueilli plus de 1000 participants et 150 intervenants. Le Congrès mondial a été marqué par une déclaration officielle de l'Union européenne, des messages solennels du Pape Benoit XVI, du Dalaï Lama, des interventions inédites d'abolitionnistes chinois, de représentants d'États qui conservent la peine de mort comme le Maroc ou le Bénin. Les travaux ont notamment porté sur la Chine dans la perspective des Jeux olympiques de Pékin en 2008 et sur les perspectives abolitionnistes en Afrique du Nord et au Moyen-Orient.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Le 4e Congrès mondial</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 4e Congrès mondial contre la peine de mort, organisé par ECPM avec le parrainage de la Confédération suisse et en partenariat avec la Coalition mondiale contre la peine de mort, s'est déroulé à Genève du 24 au 26 février 2010. Au-delà de hautes personnalités du monde politique comme de la société civile, tels que José Luis Zapatero, Robert Badinter, Navanethem Pillay, Micheline Calmy-Rey, Abdou Diouf et bien d'autres sont intervenus sur la question, auprès de plus de 1300 personnes du monde entier, réunis pour trois jours de programmation qui déclinaient la question de la peine de mort sous ses aspects tant scientifiques que culturels. De l'ouverture au palais des Nations à la manifestation de clôture en face de l'ONU, le 4e Congrès mondial était tourné vers les organisations internationales avec pour objectif affiché de développer les liens entre la société civile et les organisations intergouvernementales. ECPM, pour ce 4e opus, a par ailleurs soutenu l'implication et aidé à promouvoir le travail des acteurs des pays rétentionnistes dits "du Sud", en finançant la venue de plus de cent congressistes œuvrant pour l'abolition de la peine de mort dans leurs pays.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Le 5e Congrès mondial</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La 5e édition du Congrès mondial contre la peine de mort s'est tenue à Madrid, du 12 au 15 juin 2013.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,9 +695,11 @@
           <t>Le 6e Congrès mondial</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 6e Congrès mondial contre la peine de mort est organisé du 21 au 23 juin 2016 à Oslo, coordonné par Antonio Stango[2],[3],[4],[5],[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6e Congrès mondial contre la peine de mort est organisé du 21 au 23 juin 2016 à Oslo, coordonné par Antonio Stango.
 </t>
         </is>
       </c>
@@ -686,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_contre_la_peine_de_mort</t>
+          <t>Congrès_mondial_contre_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,7 +728,9 @@
           <t>Le 7e congrès mondial[7]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le 7e congrès mondial contre la peine de mort a été organisé par ECPM et s'est tenu à Bruxelles du 26 février au 1er mars 2019. Il rassemblait plusieurs personnalités politiques de 1er plan : 
 Pavel Telička, vice-président du Parlement européen
@@ -712,7 +738,7 @@
 Didier Reynders, vice-premier ministre et ministre des Affaires étrangères et européennes, Royaume de Belgique
 Pascale Baeriswyl, secrétaire d'État aux Affaires étrangères, Confédération suisse
 Audun Halvorsen, secrétaire d’État aux Affaires étrangères, Royaume de Norvège
-Ainsi que plusieurs témoins[8] militant pour l'abolition :
+Ainsi que plusieurs témoins militant pour l'abolition :
 Sandrine Ageorges-Skinner, épouse d'Hank Skinner condamné à mort au Texas
 Suzana Norlihan Alias, sœur de Zulkarnain bin Alias condamné à mort en Indonésie
 Arthur Judah Angel, ancien condamné à mort au Nigeria
@@ -725,11 +751,11 @@
 Hsu Tzu-Chiang, ancien condamné à mort à Taïwan
 Susan Kigoula, ancienne condamnée à mort en Ouganda
 Joaquin Martinez, ancien condamné à mort en Espagne
-Vida Mehannia, épouse d'Ahmadreza Djalali [9]condamné à mort en Iran
+Vida Mehannia, épouse d'Ahmadreza Djalali condamné à mort en Iran
 Ndume Olatushani, ancien condamné à mort aux Etats-Unis
 Pete Ouko, ancien condamné à mort au Kenya
 Marie Pelenc, correspondante d'Antoinette Chahine
-Le 7e congrès s'est articulé autour de deux plénières[10] : 
+Le 7e congrès s'est articulé autour de deux plénières : 
 Le secteur privé et la peine de mort
 Stratégies vers l’abolition : défis et opportunités en Afrique subsaharienne</t>
         </is>
